--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1026294.767997847</v>
+        <v>-1028182.349514249</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>158.8071391258808</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>33.57144585402346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.427166537251285</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>72.62557831284279</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>342.3710008287221</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>235.7901709602393</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>40.91143958001541</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>34.08346683966615</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>111.2169643532799</v>
       </c>
       <c r="G8" t="n">
-        <v>176.0678208891408</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6.357987380643181</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>211.2695306118673</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229332</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>133.4656411330407</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>126.9159244190253</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>66.79156359954237</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>167.5142106324306</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>58.8591656969604</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>89.15058872626261</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>70.98684734308414</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>122.6519788371598</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>169.8277167599796</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>246.7083340210958</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437433</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>55.21598883571506</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>29.08209343315076</v>
       </c>
       <c r="Y31" t="n">
-        <v>114.9144104999404</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692846</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463128</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415255</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3250,10 +3250,10 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224552</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692846</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1164.312709242129</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1164.312709242129</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y2" t="n">
-        <v>1550.91254930625</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>275.0913939262626</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>625.3528950470836</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>411.0644718652463</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>411.0644718652463</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>411.0644718652463</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>411.0644718652463</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W4" t="n">
-        <v>411.0644718652463</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X4" t="n">
-        <v>411.0644718652463</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>444.0275768541695</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2001.758776122685</v>
+        <v>1133.624152959604</v>
       </c>
       <c r="C5" t="n">
-        <v>1632.796259182274</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1274.530560575523</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.358616186807</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y5" t="n">
-        <v>2388.358616186807</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.26766826482447</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>693.7012399239431</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>693.7012399239431</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>693.7012399239431</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628418</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="W7" t="n">
-        <v>323.2572191628418</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X7" t="n">
-        <v>95.26766826482447</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y7" t="n">
-        <v>95.26766826482447</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.991915879943</v>
+        <v>1297.230130518035</v>
       </c>
       <c r="C8" t="n">
-        <v>1182.029398939532</v>
+        <v>1297.230130518035</v>
       </c>
       <c r="D8" t="n">
-        <v>1182.029398939532</v>
+        <v>1297.230130518035</v>
       </c>
       <c r="E8" t="n">
-        <v>796.2411463412873</v>
+        <v>911.4418779197908</v>
       </c>
       <c r="F8" t="n">
-        <v>385.2552415516797</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4835,19 +4835,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1683.829970582157</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.591755944065</v>
+        <v>1683.829970582157</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>337.1618402196266</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C10" t="n">
-        <v>337.1618402196266</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D10" t="n">
-        <v>337.1618402196266</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
         <v>190.2718927217162</v>
@@ -4957,10 +4957,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>337.1618402196266</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>337.1618402196266</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>337.1618402196266</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>337.1618402196266</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>337.1618402196266</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y10" t="n">
-        <v>337.1618402196266</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.786511292964</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>788.786511292964</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>788.786511292964</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>640.8734177105708</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>493.9834702126584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X13" t="n">
-        <v>1009.579090436494</v>
+        <v>692.3809108364825</v>
       </c>
       <c r="Y13" t="n">
-        <v>788.786511292964</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,13 +5261,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402494</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123425</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123425</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,22 +5437,22 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1431.450044699779</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1142.321405913337</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>887.6369177074502</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W16" t="n">
-        <v>598.2197476704896</v>
+        <v>985.7136853104472</v>
       </c>
       <c r="X16" t="n">
-        <v>598.2197476704891</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y16" t="n">
-        <v>598.2197476704891</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,31 +5531,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,34 +5580,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.1184791449339</v>
+        <v>506.3210135240261</v>
       </c>
       <c r="C19" t="n">
-        <v>416.1184791449339</v>
+        <v>337.3848305961192</v>
       </c>
       <c r="D19" t="n">
-        <v>416.1184791449339</v>
+        <v>187.2681911837834</v>
       </c>
       <c r="E19" t="n">
-        <v>268.2053855625408</v>
+        <v>187.2681911837834</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>187.2681911837834</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>187.2681911837834</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488381</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429512</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>644.1080300429512</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="X19" t="n">
-        <v>416.1184791449339</v>
+        <v>727.1135926675562</v>
       </c>
       <c r="Y19" t="n">
-        <v>416.1184791449339</v>
+        <v>506.3210135240261</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>954.8146123150551</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>726.8250614170378</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>506.0324822735076</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6057,34 +6057,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>783.5599953231706</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>494.14282528621</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028586</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028586</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028587</v>
@@ -6385,13 +6385,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011508</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.8032198520303</v>
+        <v>637.6995017749898</v>
       </c>
       <c r="C31" t="n">
-        <v>430.6279022054943</v>
+        <v>637.6995017749898</v>
       </c>
       <c r="D31" t="n">
-        <v>336.2721280745294</v>
+        <v>543.3437276440247</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1198997735071</v>
+        <v>451.1914993430023</v>
       </c>
       <c r="F31" t="n">
-        <v>152.9908175569676</v>
+        <v>360.0624171264625</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>247.6479607276538</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
         <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1390.574594818802</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1191.650971894286</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386977</v>
+        <v>957.9946671386958</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220511</v>
+        <v>928.6188151860183</v>
       </c>
       <c r="Y31" t="n">
-        <v>669.6908194008992</v>
+        <v>763.5871013238589</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,28 +6698,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,16 +6856,16 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6880,13 +6880,13 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045217</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850452</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,25 +7160,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,19 +7485,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7549,16 +7549,16 @@
         <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7637,22 +7637,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,34 +7804,34 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814716</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814716</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>87.16935584025396</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298484</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>33.02792733033687</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>91.6687289330695</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>154.7559974588469</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>58.19544475660655</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>86.56188232597084</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>59.76323964127351</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>108.8451328388532</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24178,10 +24178,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>51.71984429840961</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>5.429309302732179</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523586</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>141.4243053273295</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.4669862235973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="C2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>164208.3539728566</v>
       </c>
-      <c r="D2" t="n">
-        <v>164208.3539728567</v>
-      </c>
       <c r="E2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="F2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="G2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="H2" t="n">
         <v>156411.6238950835</v>
@@ -26335,19 +26335,19 @@
         <v>156411.6238950835</v>
       </c>
       <c r="J2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="K2" t="n">
         <v>162728.8549381079</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="M2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="N2" t="n">
         <v>164208.3539728566</v>
-      </c>
-      <c r="M2" t="n">
-        <v>164208.3539728567</v>
-      </c>
-      <c r="N2" t="n">
-        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728567</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086686</v>
+        <v>10342.906800867</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284554</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15045.66962143916</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.66962143911</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="G4" t="n">
-        <v>15045.66962143915</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143916</v>
-      </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563558</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,16 +26482,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,13 +26500,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665393.5615563198</v>
+        <v>-665393.5615563201</v>
       </c>
       <c r="C6" t="n">
-        <v>-75425.68234177548</v>
+        <v>-75425.68234177539</v>
       </c>
       <c r="D6" t="n">
-        <v>-75425.68234177542</v>
+        <v>-75425.68234177546</v>
       </c>
       <c r="E6" t="n">
-        <v>-475781.4081519684</v>
+        <v>-475878.8672779404</v>
       </c>
       <c r="F6" t="n">
-        <v>49378.62832492781</v>
+        <v>49281.1691989555</v>
       </c>
       <c r="G6" t="n">
-        <v>49378.62832492776</v>
+        <v>49281.16919895555</v>
       </c>
       <c r="H6" t="n">
-        <v>49378.62832492773</v>
+        <v>49281.1691989556</v>
       </c>
       <c r="I6" t="n">
-        <v>49378.62832492776</v>
+        <v>49281.1691989556</v>
       </c>
       <c r="J6" t="n">
-        <v>-127044.5908676653</v>
+        <v>-127142.0499936375</v>
       </c>
       <c r="K6" t="n">
-        <v>-11272.25103059629</v>
+        <v>-11290.74476853037</v>
       </c>
       <c r="L6" t="n">
-        <v>18685.88448920472</v>
+        <v>18685.88448920481</v>
       </c>
       <c r="M6" t="n">
-        <v>-105772.2239437655</v>
+        <v>-105772.2239437653</v>
       </c>
       <c r="N6" t="n">
-        <v>29028.79129007181</v>
+        <v>29028.79129007163</v>
       </c>
       <c r="O6" t="n">
-        <v>29028.79129007168</v>
+        <v>29028.79129007173</v>
       </c>
       <c r="P6" t="n">
-        <v>-15133.81401277393</v>
+        <v>-15133.81401277377</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108374</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>92.41702838240855</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>352.6664928020301</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>142.1883064809611</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>74.03961366731507</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>22.90189094228549</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>146.1401991120225</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>115.2594492617797</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>112.5817251404917</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>295.6590813884316</v>
       </c>
       <c r="G8" t="n">
-        <v>237.7163491316542</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>140.075975265926</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>13.76557484621696</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.940255363782247e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28579,10 +28579,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,43 +34284,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>294.2627707717787</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970350042</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
